--- a/test/GPT4_test/output_refined_3.xlsx
+++ b/test/GPT4_test/output_refined_3.xlsx
@@ -475,7 +475,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col width="5.625" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
     <col width="50.625" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
@@ -1043,6 +1043,9 @@
           <t>白细胞介素-4对视网膜神经节细胞的保护作用及其促进轴突再生的作用</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Biology Paper</t>
@@ -1058,9 +1061,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H12" s="2" t="n"/>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Biology Paper, titled "The Protective Effect of Interleukin-4 on Retinal Ganglion Cells and Its Role in Promoting Axon Regeneration" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/The Protective Effect of Interleukin-4 on Retinal Ganglion Cells and Its Role in Promoting Axon Regeneration.md</t>
+        </is>
+      </c>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
       <c r="M12" s="2" t="n"/>
@@ -1084,6 +1095,9 @@
           <t>老年鼠肠道菌群对自发性痫样放电及癫痫发作阈值影响的巨噬细胞及小胶质细胞机制</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t>Biology Paper</t>
@@ -1099,9 +1113,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H13" s="2" t="n"/>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Biology Paper, titled "The Impact of the Gut Microbiota in Aged Rats on Spontaneous Seizure-like Discharges and Seizure Threshold: Mechanisms Involving Macrophages and Microglia" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/The Impact of the Gut Microbiota in Aged Rats on Spontaneous Seizure-like Discharges and Seizure Threshold: Mechanisms Involving Macrophages and Microglia.md</t>
+        </is>
+      </c>
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="n"/>
       <c r="M13" s="2" t="n"/>
@@ -1125,6 +1147,9 @@
           <t>基于Landsat遥感影像的美国密西西比河流域特征分析</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>Environment Paper</t>
@@ -1140,9 +1165,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H14" s="2" t="n"/>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Environment Paper, titled "Evaluating the Impact of Deforestation on Biodiversity" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Evaluating the Impact of Deforestation on Biodiversity.md</t>
+        </is>
+      </c>
       <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="n"/>
       <c r="M14" s="2" t="n"/>
@@ -1166,6 +1199,9 @@
           <t>盐度对膜表面特性和污染行为的影响：动态界面的实时分析</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t>Environment Paper</t>
@@ -1181,9 +1217,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n"/>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Environment Paper, titled "The Impact of Salinity on Membrane Surface Properties and Fouling Behavior: Real-Time Analysis of Dynamic Interfaces" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/The Impact of Salinity on Membrane Surface Properties and Fouling Behavior: Real-Time Analysis of Dynamic Interfaces.md</t>
+        </is>
+      </c>
       <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="n"/>
       <c r="M15" s="2" t="n"/>
@@ -1207,6 +1251,9 @@
           <t>NG-Sort:一种高效的大规模数据排序算法</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
           <t>Computer Science Paper</t>
@@ -1222,9 +1269,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H16" s="2" t="n"/>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Computer Science Paper, titled "NG-Sort: An Efficient Algorithm for Large-Scale Data Sorting" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/NG-Sort: An Efficient Algorithm for Large-Scale Data Sorting.md</t>
+        </is>
+      </c>
       <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="n"/>
       <c r="M16" s="2" t="n"/>
@@ -1248,6 +1303,9 @@
           <t>大规模云计算系统的可靠性建模及优化研究</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
           <t>Computer Science Paper</t>
@@ -1263,9 +1321,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H17" s="2" t="n"/>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Computer Science Paper, titled "Research on Reliability Modeling and Optimization of Large-Scale Cloud Computing Systems" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Research on Reliability Modeling and Optimization of Large-Scale Cloud Computing Systems.md</t>
+        </is>
+      </c>
       <c r="K17" s="2" t="n"/>
       <c r="L17" s="2" t="n"/>
       <c r="M17" s="2" t="n"/>
@@ -1289,6 +1355,9 @@
           <t>KOLO:一种用于图像识别的改进神经网络架构</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Artificial Intelligence Paper</t>
@@ -1304,9 +1373,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n"/>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Artificial Intelligence Paper, titled "KOLO: a improved neural nextwork architecture for image recognition" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/KOLO: An Improved Neural Network Architecture for Image Recognition.md</t>
+        </is>
+      </c>
       <c r="K18" s="2" t="n"/>
       <c r="L18" s="2" t="n"/>
       <c r="M18" s="2" t="n"/>
@@ -1330,6 +1407,9 @@
           <t>基于改进RNN架构的长文本生成算法研究</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Artificial Intelligence Paper</t>
@@ -1345,9 +1425,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H19" s="2" t="n"/>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Artificial Intelligence Paper, titled "Research on long text generation algorithm based on improved RNN architecture" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Research on Long Text Generation Algorithm Based on Improved RNN Architecture.md</t>
+        </is>
+      </c>
       <c r="K19" s="2" t="n"/>
       <c r="L19" s="2" t="n"/>
       <c r="M19" s="2" t="n"/>
@@ -1371,6 +1459,9 @@
           <t>人工智能的伦理学：康德视角</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Philosophy Paper</t>
@@ -1386,9 +1477,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H20" s="2" t="n"/>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Philosophy Paper, titled "The Ethics of Artificial Intelligence: A Kantian Perspective" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/The Ethics of Artificial Intelligence: A Kantian Perspective.md</t>
+        </is>
+      </c>
       <c r="K20" s="2" t="n"/>
       <c r="L20" s="2" t="n"/>
       <c r="M20" s="2" t="n"/>
@@ -1412,6 +1511,9 @@
           <t>虚无主义和存在主义：比较研究</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
           <t>Philosophy Paper</t>
@@ -1427,9 +1529,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n"/>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Philosophy Paper, titled "Nihilism and Existentialism: A Comparative Study" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Nihilism and Existentialism: A Comparative Study.md</t>
+        </is>
+      </c>
       <c r="K21" s="2" t="n"/>
       <c r="L21" s="2" t="n"/>
       <c r="M21" s="2" t="n"/>
